--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-iam-menu.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDBA59-E8B2-49DE-9E0F-4E641C03DD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
-    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
-    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
+    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
+    <sheet name="菜单标签" sheetId="5" r:id="rId3"/>
+    <sheet name="菜单权限" sheetId="3" r:id="rId4"/>
+    <sheet name="角色权限" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="798">
   <si>
     <r>
       <rPr>
@@ -4167,13 +4177,84 @@
   </si>
   <si>
     <t>iam_role_permission-59</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+  </si>
+  <si>
+    <t>HZERO_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="61">
     <font>
       <sz val="12"/>
@@ -4293,219 +4374,262 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4646,7 +4770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4698,6 +4822,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4713,53 +4880,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -5099,36 +5224,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5137,21 +5262,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5262,11 +5387,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -5304,19 +5429,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -5340,39 +5465,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:25">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:25">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5382,13 +5510,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="53">
+      <c r="D7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="54">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="55">
+      <c r="F7" s="50" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -5400,10 +5528,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="56">
+      <c r="J7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="57">
+      <c r="K7" s="52" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -5424,7 +5552,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="58">
+      <c r="R7" s="53" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -5449,7 +5577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5502,7 +5630,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -5518,8 +5646,9 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>91</v>
@@ -5552,7 +5681,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>95</v>
       </c>
@@ -5571,8 +5700,9 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>99</v>
@@ -5611,7 +5741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>105</v>
       </c>
@@ -5627,8 +5757,9 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="L11" t="s">
         <v>109</v>
@@ -5658,7 +5789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>112</v>
       </c>
@@ -5677,8 +5808,9 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
         <v>116</v>
@@ -5714,7 +5846,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>121</v>
       </c>
@@ -5730,8 +5862,9 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
         <v>109</v>
@@ -5764,7 +5897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>125</v>
       </c>
@@ -5783,8 +5916,9 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L14" t="s">
         <v>116</v>
@@ -5820,7 +5954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>133</v>
       </c>
@@ -5836,8 +5970,9 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="str">
         <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="L15" t="s">
         <v>109</v>
@@ -5870,7 +6005,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>136</v>
       </c>
@@ -5889,8 +6024,9 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L16" t="s">
         <v>116</v>
@@ -5926,7 +6062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:24">
       <c r="E17" t="s">
         <v>145</v>
       </c>
@@ -5942,8 +6078,9 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="L17" t="s">
         <v>109</v>
@@ -5976,7 +6113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:24">
       <c r="E18" t="s">
         <v>148</v>
       </c>
@@ -5995,8 +6132,9 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L18" t="s">
         <v>116</v>
@@ -6032,7 +6170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:24">
       <c r="E19" t="s">
         <v>156</v>
       </c>
@@ -6048,8 +6186,9 @@
       <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="L19" t="s">
         <v>109</v>
@@ -6079,7 +6218,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:24">
       <c r="E20" t="s">
         <v>160</v>
       </c>
@@ -6095,8 +6234,9 @@
       <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="L20" t="s">
         <v>109</v>
@@ -6126,7 +6266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:24">
       <c r="E21" t="s">
         <v>164</v>
       </c>
@@ -6142,8 +6282,9 @@
       <c r="J21" t="s">
         <v>80</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="L21" t="s">
         <v>109</v>
@@ -6173,7 +6314,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:24">
       <c r="E22" t="s">
         <v>168</v>
       </c>
@@ -6189,8 +6330,9 @@
       <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="L22" t="s">
         <v>109</v>
@@ -6220,7 +6362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:24">
       <c r="E23" t="s">
         <v>172</v>
       </c>
@@ -6239,8 +6381,9 @@
       <c r="J23" t="s">
         <v>80</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L23" t="s">
         <v>116</v>
@@ -6276,7 +6419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:24">
       <c r="E24" t="s">
         <v>179</v>
       </c>
@@ -6292,8 +6435,9 @@
       <c r="J24" t="s">
         <v>80</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="L24" t="s">
         <v>109</v>
@@ -6323,7 +6467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:24">
       <c r="E25" t="s">
         <v>183</v>
       </c>
@@ -6339,8 +6483,9 @@
       <c r="J25" t="s">
         <v>80</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="L25" t="s">
         <v>109</v>
@@ -6370,7 +6515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:24">
       <c r="E26" t="s">
         <v>187</v>
       </c>
@@ -6386,8 +6531,9 @@
       <c r="J26" t="s">
         <v>80</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="L26" t="s">
         <v>109</v>
@@ -6417,7 +6563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:24">
       <c r="E27" t="s">
         <v>191</v>
       </c>
@@ -6433,8 +6579,9 @@
       <c r="J27" t="s">
         <v>80</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="L27" t="s">
         <v>109</v>
@@ -6464,7 +6611,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:24">
       <c r="E28" t="s">
         <v>195</v>
       </c>
@@ -6480,8 +6627,9 @@
       <c r="J28" t="s">
         <v>80</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L28" t="s">
         <v>91</v>
@@ -6514,7 +6662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:24">
       <c r="E29" t="s">
         <v>202</v>
       </c>
@@ -6561,7 +6709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:24">
       <c r="E30" t="s">
         <v>208</v>
       </c>
@@ -6608,7 +6756,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:24">
       <c r="E31" t="s">
         <v>212</v>
       </c>
@@ -6658,7 +6806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:24">
       <c r="E32" t="s">
         <v>215</v>
       </c>
@@ -6708,7 +6856,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:24">
       <c r="E33" t="s">
         <v>219</v>
       </c>
@@ -6724,8 +6872,9 @@
       <c r="J33" t="s">
         <v>80</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L33" t="s">
         <v>91</v>
@@ -6758,7 +6907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:24">
       <c r="E34" t="s">
         <v>225</v>
       </c>
@@ -6777,8 +6926,9 @@
       <c r="J34" t="s">
         <v>80</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="str">
         <f>菜单SAAS版!$E$33</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="L34" t="s">
         <v>116</v>
@@ -6814,7 +6964,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:24">
       <c r="E35" t="s">
         <v>232</v>
       </c>
@@ -6830,8 +6980,9 @@
       <c r="J35" t="s">
         <v>80</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="str">
         <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="L35" t="s">
         <v>109</v>
@@ -6861,7 +7012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:24">
       <c r="E36" t="s">
         <v>236</v>
       </c>
@@ -6877,8 +7028,9 @@
       <c r="J36" t="s">
         <v>80</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="str">
         <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="L36" t="s">
         <v>109</v>
@@ -6908,7 +7060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:24">
       <c r="E37" t="s">
         <v>240</v>
       </c>
@@ -6924,8 +7076,9 @@
       <c r="J37" t="s">
         <v>80</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="str">
         <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="L37" t="s">
         <v>109</v>
@@ -6955,7 +7108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:24">
       <c r="E38" t="s">
         <v>244</v>
       </c>
@@ -6971,8 +7124,9 @@
       <c r="J38" t="s">
         <v>80</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="str">
         <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="L38" t="s">
         <v>109</v>
@@ -7002,7 +7156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:24">
       <c r="E39" t="s">
         <v>248</v>
       </c>
@@ -7018,8 +7172,9 @@
       <c r="J39" t="s">
         <v>80</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="str">
         <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="L39" t="s">
         <v>109</v>
@@ -7049,7 +7204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:24">
       <c r="E40" t="s">
         <v>252</v>
       </c>
@@ -7065,8 +7220,9 @@
       <c r="J40" t="s">
         <v>80</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="str">
         <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="L40" t="s">
         <v>109</v>
@@ -7099,7 +7255,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:24">
       <c r="E41" t="s">
         <v>255</v>
       </c>
@@ -7118,8 +7274,9 @@
       <c r="J41" t="s">
         <v>80</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="str">
         <f>菜单SAAS版!$E$33</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="L41" t="s">
         <v>116</v>
@@ -7155,7 +7312,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:24">
       <c r="E42" t="s">
         <v>263</v>
       </c>
@@ -7171,8 +7328,9 @@
       <c r="J42" t="s">
         <v>80</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="L42" t="s">
         <v>109</v>
@@ -7202,7 +7360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:24">
       <c r="E43" t="s">
         <v>267</v>
       </c>
@@ -7221,8 +7379,9 @@
       <c r="J43" t="s">
         <v>80</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="L43" t="s">
         <v>109</v>
@@ -7255,7 +7414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:24">
       <c r="E44" t="s">
         <v>272</v>
       </c>
@@ -7271,8 +7430,9 @@
       <c r="J44" t="s">
         <v>80</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="L44" t="s">
         <v>109</v>
@@ -7302,7 +7462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:24">
       <c r="E45" t="s">
         <v>276</v>
       </c>
@@ -7318,8 +7478,9 @@
       <c r="J45" t="s">
         <v>80</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="L45" t="s">
         <v>109</v>
@@ -7349,7 +7510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:24">
       <c r="E46" t="s">
         <v>280</v>
       </c>
@@ -7368,8 +7529,9 @@
       <c r="J46" t="s">
         <v>80</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="str">
         <f>菜单SAAS版!$E$33</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="L46" t="s">
         <v>116</v>
@@ -7405,7 +7567,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:24">
       <c r="E47" t="s">
         <v>287</v>
       </c>
@@ -7421,8 +7583,9 @@
       <c r="J47" t="s">
         <v>80</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="str">
         <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="L47" t="s">
         <v>109</v>
@@ -7455,7 +7618,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:24">
       <c r="E48" t="s">
         <v>291</v>
       </c>
@@ -7471,8 +7634,9 @@
       <c r="J48" t="s">
         <v>80</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="str">
         <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="L48" t="s">
         <v>109</v>
@@ -7505,7 +7669,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:24">
       <c r="E49" t="s">
         <v>295</v>
       </c>
@@ -7521,8 +7685,9 @@
       <c r="J49" t="s">
         <v>80</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="str">
         <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="L49" t="s">
         <v>109</v>
@@ -7555,7 +7720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:24">
       <c r="E50" t="s">
         <v>299</v>
       </c>
@@ -7571,8 +7736,9 @@
       <c r="J50" t="s">
         <v>80</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="str">
         <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="L50" t="s">
         <v>109</v>
@@ -7602,7 +7768,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:24">
       <c r="E51" t="s">
         <v>303</v>
       </c>
@@ -7621,8 +7787,9 @@
       <c r="J51" t="s">
         <v>80</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="str">
         <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="L51" t="s">
         <v>109</v>
@@ -7655,7 +7822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:24">
       <c r="E52" t="s">
         <v>308</v>
       </c>
@@ -7671,8 +7838,9 @@
       <c r="J52" t="s">
         <v>80</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="str">
         <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="L52" t="s">
         <v>109</v>
@@ -7702,7 +7870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:24">
       <c r="E53" t="s">
         <v>312</v>
       </c>
@@ -7718,8 +7886,9 @@
       <c r="J53" t="s">
         <v>80</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="str">
         <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="L53" t="s">
         <v>109</v>
@@ -7749,7 +7918,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:24">
       <c r="E54" t="s">
         <v>316</v>
       </c>
@@ -7768,8 +7937,9 @@
       <c r="J54" t="s">
         <v>80</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="str">
         <f>菜单SAAS版!$E$33</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="L54" t="s">
         <v>116</v>
@@ -7805,7 +7975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:24">
       <c r="E55" t="s">
         <v>324</v>
       </c>
@@ -7821,8 +7991,9 @@
       <c r="J55" t="s">
         <v>80</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L55" t="s">
         <v>109</v>
@@ -7855,7 +8026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:24">
       <c r="E56" t="s">
         <v>327</v>
       </c>
@@ -7874,8 +8045,9 @@
       <c r="J56" t="s">
         <v>80</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="str">
         <f>菜单SAAS版!$E$33</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="L56" t="s">
         <v>116</v>
@@ -7911,7 +8083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:24">
       <c r="E57" t="s">
         <v>334</v>
       </c>
@@ -7927,8 +8099,9 @@
       <c r="J57" t="s">
         <v>80</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="L57" t="s">
         <v>109</v>
@@ -7958,7 +8131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:24">
       <c r="E58" t="s">
         <v>338</v>
       </c>
@@ -7974,8 +8147,9 @@
       <c r="J58" t="s">
         <v>80</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="L58" t="s">
         <v>109</v>
@@ -8005,7 +8179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:24">
       <c r="E59" t="s">
         <v>342</v>
       </c>
@@ -8021,8 +8195,9 @@
       <c r="J59" t="s">
         <v>80</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="L59" t="s">
         <v>109</v>
@@ -8052,7 +8227,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:24">
       <c r="E60" t="s">
         <v>345</v>
       </c>
@@ -8068,8 +8243,9 @@
       <c r="J60" t="s">
         <v>80</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="L60" t="s">
         <v>109</v>
@@ -8099,7 +8275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:24">
       <c r="E61" t="s">
         <v>349</v>
       </c>
@@ -8115,8 +8291,9 @@
       <c r="J61" t="s">
         <v>80</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="L61" t="s">
         <v>109</v>
@@ -8146,7 +8323,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:24">
       <c r="E62" t="s">
         <v>353</v>
       </c>
@@ -8162,8 +8339,9 @@
       <c r="J62" t="s">
         <v>80</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="L62" t="s">
         <v>109</v>
@@ -8193,7 +8371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:24">
       <c r="E63" t="s">
         <v>357</v>
       </c>
@@ -8209,8 +8387,9 @@
       <c r="J63" t="s">
         <v>80</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="L63" t="s">
         <v>109</v>
@@ -8240,7 +8419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:24">
       <c r="E64" t="s">
         <v>361</v>
       </c>
@@ -8256,8 +8435,9 @@
       <c r="J64" t="s">
         <v>80</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="L64" t="s">
         <v>109</v>
@@ -8287,7 +8467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:24">
       <c r="E65" t="s">
         <v>364</v>
       </c>
@@ -8303,8 +8483,9 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="L65" t="s">
         <v>109</v>
@@ -8338,44 +8519,1302 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB69648B-6EE6-4249-9B5E-611E7A0781ED}">
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="E4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="H7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I7" t="s">
+        <v>688</v>
+      </c>
+      <c r="J7" t="s">
+        <v>778</v>
+      </c>
+      <c r="K7" t="s">
+        <v>779</v>
+      </c>
+      <c r="L7" t="s">
+        <v>780</v>
+      </c>
+      <c r="M7" t="s">
+        <v>781</v>
+      </c>
+      <c r="N7" t="s">
+        <v>782</v>
+      </c>
+      <c r="O7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
+        <v>784</v>
+      </c>
+      <c r="F8" t="s">
+        <v>785</v>
+      </c>
+      <c r="G8" t="s">
+        <v>786</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>787</v>
+      </c>
+      <c r="J8" t="s">
+        <v>788</v>
+      </c>
+      <c r="K8" t="s">
+        <v>788</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>793</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>794</v>
+      </c>
+      <c r="I10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
+        <v>796</v>
+      </c>
+      <c r="F11" t="s">
+        <v>786</v>
+      </c>
+      <c r="G11" t="str">
+        <f>菜单SAAS版!E8</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H11" s="75" t="str">
+        <f>$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
+        <v>796</v>
+      </c>
+      <c r="F12" t="s">
+        <v>786</v>
+      </c>
+      <c r="G12" t="str">
+        <f>菜单SAAS版!E9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H12" s="75" t="str">
+        <f t="shared" ref="H12:H68" si="0">$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
+        <v>796</v>
+      </c>
+      <c r="F13" t="s">
+        <v>786</v>
+      </c>
+      <c r="G13" t="str">
+        <f>菜单SAAS版!E10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H13" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
+        <v>796</v>
+      </c>
+      <c r="F14" t="s">
+        <v>786</v>
+      </c>
+      <c r="G14" t="str">
+        <f>菜单SAAS版!E11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H14" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
+        <v>796</v>
+      </c>
+      <c r="F15" t="s">
+        <v>786</v>
+      </c>
+      <c r="G15" t="str">
+        <f>菜单SAAS版!E12</f>
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H15" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
+        <v>796</v>
+      </c>
+      <c r="F16" t="s">
+        <v>786</v>
+      </c>
+      <c r="G16" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H16" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
+        <v>796</v>
+      </c>
+      <c r="F17" t="s">
+        <v>786</v>
+      </c>
+      <c r="G17" t="str">
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H17" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" t="s">
+        <v>796</v>
+      </c>
+      <c r="F18" t="s">
+        <v>786</v>
+      </c>
+      <c r="G18" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H18" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" t="s">
+        <v>796</v>
+      </c>
+      <c r="F19" t="s">
+        <v>786</v>
+      </c>
+      <c r="G19" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H19" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" t="s">
+        <v>796</v>
+      </c>
+      <c r="F20" t="s">
+        <v>786</v>
+      </c>
+      <c r="G20" t="str">
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H20" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" t="s">
+        <v>796</v>
+      </c>
+      <c r="F21" t="s">
+        <v>786</v>
+      </c>
+      <c r="G21" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H21" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" t="s">
+        <v>796</v>
+      </c>
+      <c r="F22" t="s">
+        <v>786</v>
+      </c>
+      <c r="G22" t="str">
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H22" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" t="s">
+        <v>796</v>
+      </c>
+      <c r="F23" t="s">
+        <v>786</v>
+      </c>
+      <c r="G23" t="str">
+        <f>菜单SAAS版!E20</f>
+        <v>iam_menu-20</v>
+      </c>
+      <c r="H23" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" t="s">
+        <v>796</v>
+      </c>
+      <c r="F24" t="s">
+        <v>786</v>
+      </c>
+      <c r="G24" t="str">
+        <f>菜单SAAS版!E21</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="H24" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" t="s">
+        <v>796</v>
+      </c>
+      <c r="F25" t="s">
+        <v>786</v>
+      </c>
+      <c r="G25" t="str">
+        <f>菜单SAAS版!E22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="H25" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
+        <v>796</v>
+      </c>
+      <c r="F26" t="s">
+        <v>786</v>
+      </c>
+      <c r="G26" t="str">
+        <f>菜单SAAS版!E23</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="H26" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" t="s">
+        <v>796</v>
+      </c>
+      <c r="F27" t="s">
+        <v>786</v>
+      </c>
+      <c r="G27" t="str">
+        <f>菜单SAAS版!E24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="H27" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" t="s">
+        <v>796</v>
+      </c>
+      <c r="F28" t="s">
+        <v>786</v>
+      </c>
+      <c r="G28" t="str">
+        <f>菜单SAAS版!E25</f>
+        <v>iam_menu-25</v>
+      </c>
+      <c r="H28" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" t="s">
+        <v>796</v>
+      </c>
+      <c r="F29" t="s">
+        <v>786</v>
+      </c>
+      <c r="G29" t="str">
+        <f>菜单SAAS版!E26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H29" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" t="s">
+        <v>796</v>
+      </c>
+      <c r="F30" t="s">
+        <v>786</v>
+      </c>
+      <c r="G30" t="str">
+        <f>菜单SAAS版!E27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="H30" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" t="s">
+        <v>796</v>
+      </c>
+      <c r="F31" t="s">
+        <v>786</v>
+      </c>
+      <c r="G31" t="str">
+        <f>菜单SAAS版!E28</f>
+        <v>iam_menu-28</v>
+      </c>
+      <c r="H31" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" t="s">
+        <v>796</v>
+      </c>
+      <c r="F32" t="s">
+        <v>786</v>
+      </c>
+      <c r="G32" t="str">
+        <f>菜单SAAS版!E29</f>
+        <v>iam_menu-29</v>
+      </c>
+      <c r="H32" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" t="s">
+        <v>796</v>
+      </c>
+      <c r="F33" t="s">
+        <v>786</v>
+      </c>
+      <c r="G33" t="str">
+        <f>菜单SAAS版!E30</f>
+        <v>iam_menu-30</v>
+      </c>
+      <c r="H33" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34" t="s">
+        <v>796</v>
+      </c>
+      <c r="F34" t="s">
+        <v>786</v>
+      </c>
+      <c r="G34" t="str">
+        <f>菜单SAAS版!E31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="H34" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" t="s">
+        <v>796</v>
+      </c>
+      <c r="F35" t="s">
+        <v>786</v>
+      </c>
+      <c r="G35" t="str">
+        <f>菜单SAAS版!E32</f>
+        <v>iam_menu-32</v>
+      </c>
+      <c r="H35" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" t="s">
+        <v>796</v>
+      </c>
+      <c r="F36" t="s">
+        <v>786</v>
+      </c>
+      <c r="G36" t="str">
+        <f>菜单SAAS版!E33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="H36" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" t="s">
+        <v>796</v>
+      </c>
+      <c r="F37" t="s">
+        <v>786</v>
+      </c>
+      <c r="G37" t="str">
+        <f>菜单SAAS版!E34</f>
+        <v>iam_menu-34</v>
+      </c>
+      <c r="H37" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38" t="s">
+        <v>796</v>
+      </c>
+      <c r="F38" t="s">
+        <v>786</v>
+      </c>
+      <c r="G38" t="str">
+        <f>菜单SAAS版!E35</f>
+        <v>iam_menu-35</v>
+      </c>
+      <c r="H38" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39" t="s">
+        <v>796</v>
+      </c>
+      <c r="F39" t="s">
+        <v>786</v>
+      </c>
+      <c r="G39" t="str">
+        <f>菜单SAAS版!E36</f>
+        <v>iam_menu-36</v>
+      </c>
+      <c r="H39" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40" t="s">
+        <v>796</v>
+      </c>
+      <c r="F40" t="s">
+        <v>786</v>
+      </c>
+      <c r="G40" t="str">
+        <f>菜单SAAS版!E37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="H40" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" t="s">
+        <v>796</v>
+      </c>
+      <c r="F41" t="s">
+        <v>786</v>
+      </c>
+      <c r="G41" t="str">
+        <f>菜单SAAS版!E38</f>
+        <v>iam_menu-38</v>
+      </c>
+      <c r="H41" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" t="s">
+        <v>796</v>
+      </c>
+      <c r="F42" t="s">
+        <v>786</v>
+      </c>
+      <c r="G42" t="str">
+        <f>菜单SAAS版!E39</f>
+        <v>iam_menu-39</v>
+      </c>
+      <c r="H42" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" t="s">
+        <v>796</v>
+      </c>
+      <c r="F43" t="s">
+        <v>786</v>
+      </c>
+      <c r="G43" t="str">
+        <f>菜单SAAS版!E40</f>
+        <v>iam_menu-40</v>
+      </c>
+      <c r="H43" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
+      <c r="E44" t="s">
+        <v>796</v>
+      </c>
+      <c r="F44" t="s">
+        <v>786</v>
+      </c>
+      <c r="G44" t="str">
+        <f>菜单SAAS版!E41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="H44" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
+      <c r="E45" t="s">
+        <v>796</v>
+      </c>
+      <c r="F45" t="s">
+        <v>786</v>
+      </c>
+      <c r="G45" t="str">
+        <f>菜单SAAS版!E42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="H45" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9">
+      <c r="E46" t="s">
+        <v>796</v>
+      </c>
+      <c r="F46" t="s">
+        <v>786</v>
+      </c>
+      <c r="G46" t="str">
+        <f>菜单SAAS版!E43</f>
+        <v>iam_menu-43</v>
+      </c>
+      <c r="H46" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9">
+      <c r="E47" t="s">
+        <v>796</v>
+      </c>
+      <c r="F47" t="s">
+        <v>786</v>
+      </c>
+      <c r="G47" t="str">
+        <f>菜单SAAS版!E44</f>
+        <v>iam_menu-44</v>
+      </c>
+      <c r="H47" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I47" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9">
+      <c r="E48" t="s">
+        <v>796</v>
+      </c>
+      <c r="F48" t="s">
+        <v>786</v>
+      </c>
+      <c r="G48" t="str">
+        <f>菜单SAAS版!E45</f>
+        <v>iam_menu-45</v>
+      </c>
+      <c r="H48" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
+      <c r="E49" t="s">
+        <v>796</v>
+      </c>
+      <c r="F49" t="s">
+        <v>786</v>
+      </c>
+      <c r="G49" t="str">
+        <f>菜单SAAS版!E46</f>
+        <v>iam_menu-46</v>
+      </c>
+      <c r="H49" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
+      <c r="E50" t="s">
+        <v>796</v>
+      </c>
+      <c r="F50" t="s">
+        <v>786</v>
+      </c>
+      <c r="G50" t="str">
+        <f>菜单SAAS版!E47</f>
+        <v>iam_menu-47</v>
+      </c>
+      <c r="H50" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
+      <c r="E51" t="s">
+        <v>796</v>
+      </c>
+      <c r="F51" t="s">
+        <v>786</v>
+      </c>
+      <c r="G51" t="str">
+        <f>菜单SAAS版!E48</f>
+        <v>iam_menu-48</v>
+      </c>
+      <c r="H51" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9">
+      <c r="E52" t="s">
+        <v>796</v>
+      </c>
+      <c r="F52" t="s">
+        <v>786</v>
+      </c>
+      <c r="G52" t="str">
+        <f>菜单SAAS版!E49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="H52" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9">
+      <c r="E53" t="s">
+        <v>796</v>
+      </c>
+      <c r="F53" t="s">
+        <v>786</v>
+      </c>
+      <c r="G53" t="str">
+        <f>菜单SAAS版!E50</f>
+        <v>iam_menu-50</v>
+      </c>
+      <c r="H53" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9">
+      <c r="E54" t="s">
+        <v>796</v>
+      </c>
+      <c r="F54" t="s">
+        <v>786</v>
+      </c>
+      <c r="G54" t="str">
+        <f>菜单SAAS版!E51</f>
+        <v>iam_menu-51</v>
+      </c>
+      <c r="H54" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9">
+      <c r="E55" t="s">
+        <v>796</v>
+      </c>
+      <c r="F55" t="s">
+        <v>786</v>
+      </c>
+      <c r="G55" t="str">
+        <f>菜单SAAS版!E52</f>
+        <v>iam_menu-52</v>
+      </c>
+      <c r="H55" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9">
+      <c r="E56" t="s">
+        <v>796</v>
+      </c>
+      <c r="F56" t="s">
+        <v>786</v>
+      </c>
+      <c r="G56" t="str">
+        <f>菜单SAAS版!E53</f>
+        <v>iam_menu-53</v>
+      </c>
+      <c r="H56" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I56" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9">
+      <c r="E57" t="s">
+        <v>796</v>
+      </c>
+      <c r="F57" t="s">
+        <v>786</v>
+      </c>
+      <c r="G57" t="str">
+        <f>菜单SAAS版!E54</f>
+        <v>iam_menu-54</v>
+      </c>
+      <c r="H57" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9">
+      <c r="E58" t="s">
+        <v>796</v>
+      </c>
+      <c r="F58" t="s">
+        <v>786</v>
+      </c>
+      <c r="G58" t="str">
+        <f>菜单SAAS版!E55</f>
+        <v>iam_menu-55</v>
+      </c>
+      <c r="H58" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9">
+      <c r="E59" t="s">
+        <v>796</v>
+      </c>
+      <c r="F59" t="s">
+        <v>786</v>
+      </c>
+      <c r="G59" t="str">
+        <f>菜单SAAS版!E56</f>
+        <v>iam_menu-56</v>
+      </c>
+      <c r="H59" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I59" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9">
+      <c r="E60" t="s">
+        <v>796</v>
+      </c>
+      <c r="F60" t="s">
+        <v>786</v>
+      </c>
+      <c r="G60" t="str">
+        <f>菜单SAAS版!E57</f>
+        <v>iam_menu-57</v>
+      </c>
+      <c r="H60" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I60" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9">
+      <c r="E61" t="s">
+        <v>796</v>
+      </c>
+      <c r="F61" t="s">
+        <v>786</v>
+      </c>
+      <c r="G61" t="str">
+        <f>菜单SAAS版!E58</f>
+        <v>iam_menu-58</v>
+      </c>
+      <c r="H61" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I61" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9">
+      <c r="E62" t="s">
+        <v>796</v>
+      </c>
+      <c r="F62" t="s">
+        <v>786</v>
+      </c>
+      <c r="G62" t="str">
+        <f>菜单SAAS版!E59</f>
+        <v>iam_menu-59</v>
+      </c>
+      <c r="H62" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I62" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9">
+      <c r="E63" t="s">
+        <v>796</v>
+      </c>
+      <c r="F63" t="s">
+        <v>786</v>
+      </c>
+      <c r="G63" t="str">
+        <f>菜单SAAS版!E60</f>
+        <v>iam_menu-60</v>
+      </c>
+      <c r="H63" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I63" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9">
+      <c r="E64" t="s">
+        <v>796</v>
+      </c>
+      <c r="F64" t="s">
+        <v>786</v>
+      </c>
+      <c r="G64" t="str">
+        <f>菜单SAAS版!E61</f>
+        <v>iam_menu-61</v>
+      </c>
+      <c r="H64" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I64" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9">
+      <c r="E65" t="s">
+        <v>796</v>
+      </c>
+      <c r="F65" t="s">
+        <v>786</v>
+      </c>
+      <c r="G65" t="str">
+        <f>菜单SAAS版!E62</f>
+        <v>iam_menu-62</v>
+      </c>
+      <c r="H65" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I65" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9">
+      <c r="E66" t="s">
+        <v>796</v>
+      </c>
+      <c r="F66" t="s">
+        <v>786</v>
+      </c>
+      <c r="G66" t="str">
+        <f>菜单SAAS版!E63</f>
+        <v>iam_menu-63</v>
+      </c>
+      <c r="H66" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I66" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9">
+      <c r="E67" t="s">
+        <v>796</v>
+      </c>
+      <c r="F67" t="s">
+        <v>786</v>
+      </c>
+      <c r="G67" t="str">
+        <f>菜单SAAS版!E64</f>
+        <v>iam_menu-64</v>
+      </c>
+      <c r="H67" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I67" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9">
+      <c r="E68" t="s">
+        <v>796</v>
+      </c>
+      <c r="F68" t="s">
+        <v>786</v>
+      </c>
+      <c r="G68" t="str">
+        <f>菜单SAAS版!E65</f>
+        <v>iam_menu-65</v>
+      </c>
+      <c r="H68" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I68" t="s">
+        <v>797</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:7">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:7">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8385,1983 +9824,2159 @@
       <c r="C7" t="s">
         <v>367</v>
       </c>
-      <c r="D7" t="s" s="59">
+      <c r="D7" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="E7" t="s" s="60">
+      <c r="E7" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="61">
+      <c r="F7" s="56" t="s">
         <v>369</v>
       </c>
-      <c r="G7" t="s" s="62">
+      <c r="G7" s="57" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>371</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>373</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>375</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>377</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G11" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>379</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G12" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>381</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>383</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>385</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>387</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>菜单SAAS版!$E$42</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="G16" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:7">
       <c r="E17" t="s">
         <v>389</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>菜单SAAS版!$E$42</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="G17" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:7">
       <c r="E18" t="s">
         <v>391</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
         <v>393</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G19" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:7">
       <c r="E20" t="s">
         <v>395</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G20" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:7">
       <c r="E21" t="s">
         <v>397</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G21" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:7">
       <c r="E22" t="s">
         <v>398</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G22" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:7">
       <c r="E23" t="s">
         <v>400</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G23" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:7">
       <c r="E24" t="s">
         <v>401</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G24" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:7">
       <c r="E25" t="s">
         <v>403</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G25" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:7">
       <c r="E26" t="s">
         <v>405</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G26" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:7">
       <c r="E27" t="s">
         <v>407</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G27" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:7">
       <c r="E28" t="s">
         <v>409</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G28" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:7">
       <c r="E29" t="s">
         <v>411</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G29" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:7">
       <c r="E30" t="s">
         <v>413</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G30" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:7">
       <c r="E31" t="s">
         <v>415</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="G31" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:7">
       <c r="E32" t="s">
         <v>417</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>菜单SAAS版!$E$45</f>
+        <v>iam_menu-45</v>
       </c>
       <c r="G32" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:7">
       <c r="E33" t="s">
         <v>418</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>菜单SAAS版!$E$45</f>
+        <v>iam_menu-45</v>
       </c>
       <c r="G33" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:7">
       <c r="E34" t="s">
         <v>419</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>菜单SAAS版!$E$45</f>
+        <v>iam_menu-45</v>
       </c>
       <c r="G34" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:7">
       <c r="E35" t="s">
         <v>420</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>菜单SAAS版!$E$45</f>
+        <v>iam_menu-45</v>
       </c>
       <c r="G35" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:7">
       <c r="E36" t="s">
         <v>421</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G36" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:7">
       <c r="E37" t="s">
         <v>422</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G37" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:7">
       <c r="E38" t="s">
         <v>423</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G38" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:7">
       <c r="E39" t="s">
         <v>425</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G39" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:7">
       <c r="E40" t="s">
         <v>427</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G40" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:7">
       <c r="E41" t="s">
         <v>429</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G41" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:7">
       <c r="E42" t="s">
         <v>431</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G42" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:7">
       <c r="E43" t="s">
         <v>433</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G43" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:7">
       <c r="E44" t="s">
         <v>435</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G44" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:7">
       <c r="E45" t="s">
         <v>437</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G45" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:7">
       <c r="E46" t="s">
         <v>439</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G46" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:7">
       <c r="E47" t="s">
         <v>441</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G47" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:7">
       <c r="E48" t="s">
         <v>443</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G48" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:7">
       <c r="E49" t="s">
         <v>445</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G49" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:7">
       <c r="E50" t="s">
         <v>447</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G50" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:7">
       <c r="E51" t="s">
         <v>449</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G51" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:7">
       <c r="E52" t="s">
         <v>451</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G52" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:7">
       <c r="E53" t="s">
         <v>453</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G53" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:7">
       <c r="E54" t="s">
         <v>455</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G54" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:7">
       <c r="E55" t="s">
         <v>457</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G55" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:7">
       <c r="E56" t="s">
         <v>459</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G56" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:7">
       <c r="E57" t="s">
         <v>461</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G57" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:7">
       <c r="E58" t="s">
         <v>463</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G58" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:7">
       <c r="E59" t="s">
         <v>465</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G59" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:7">
       <c r="E60" t="s">
         <v>467</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G60" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:7">
       <c r="E61" t="s">
         <v>469</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G61" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:7">
       <c r="E62" t="s">
         <v>471</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G62" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:7">
       <c r="E63" t="s">
         <v>473</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G63" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:7">
       <c r="E64" t="s">
         <v>475</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G64" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:7">
       <c r="E65" t="s">
         <v>477</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G65" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="5:7">
       <c r="E66" t="s">
         <v>479</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G66" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="5:7">
       <c r="E67" t="s">
         <v>481</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G67" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="5:7">
       <c r="E68" t="s">
         <v>483</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G68" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="5:7">
       <c r="E69" t="s">
         <v>485</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G69" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="5:7">
       <c r="E70" t="s">
         <v>486</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G70" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="5:7">
       <c r="E71" t="s">
         <v>488</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G71" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="5:7">
       <c r="E72" t="s">
         <v>490</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G72" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="5:7">
       <c r="E73" t="s">
         <v>492</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G73" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="5:7">
       <c r="E74" t="s">
         <v>494</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G74" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="5:7">
       <c r="E75" t="s">
         <v>496</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G75" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="5:7">
       <c r="E76" t="s">
         <v>498</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G76" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="5:7">
       <c r="E77" t="s">
         <v>500</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G77" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="5:7">
       <c r="E78" t="s">
         <v>502</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G78" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="5:7">
       <c r="E79" t="s">
         <v>504</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G79" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="5:7">
       <c r="E80" t="s">
         <v>506</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G80" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="5:7">
       <c r="E81" t="s">
         <v>508</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G81" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="5:7">
       <c r="E82" t="s">
         <v>510</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G82" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="5:7">
       <c r="E83" t="s">
         <v>512</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G83" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="5:7">
       <c r="E84" t="s">
         <v>514</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G84" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="5:7">
       <c r="E85" t="s">
         <v>516</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G85" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="5:7">
       <c r="E86" t="s">
         <v>518</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G86" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="5:7">
       <c r="E87" t="s">
         <v>520</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G87" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="5:7">
       <c r="E88" t="s">
         <v>522</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G88" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="5:7">
       <c r="E89" t="s">
         <v>524</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G89" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="5:7">
       <c r="E90" t="s">
         <v>526</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G90" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="5:7">
       <c r="E91" t="s">
         <v>528</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G91" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="5:7">
       <c r="E92" t="s">
         <v>530</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G92" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="5:7">
       <c r="E93" t="s">
         <v>532</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G93" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="5:7">
       <c r="E94" t="s">
         <v>534</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G94" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="5:7">
       <c r="E95" t="s">
         <v>536</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G95" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="5:7">
       <c r="E96" t="s">
         <v>538</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G96" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="5:7">
       <c r="E97" t="s">
         <v>540</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G97" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="5:7">
       <c r="E98" t="s">
         <v>542</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G98" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="5:7">
       <c r="E99" t="s">
         <v>544</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G99" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="5:7">
       <c r="E100" t="s">
         <v>546</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G100" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="5:7">
       <c r="E101" t="s">
         <v>548</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G101" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="5:7">
       <c r="E102" t="s">
         <v>550</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G102" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="5:7">
       <c r="E103" t="s">
         <v>552</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G103" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="5:7">
       <c r="E104" t="s">
         <v>554</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G104" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="5:7">
       <c r="E105" t="s">
         <v>556</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G105" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="5:7">
       <c r="E106" t="s">
         <v>558</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G106" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="5:7">
       <c r="E107" t="s">
         <v>560</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G107" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="5:7">
       <c r="E108" t="s">
         <v>562</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G108" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="5:7">
       <c r="E109" t="s">
         <v>564</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G109" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="5:7">
       <c r="E110" t="s">
         <v>566</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G110" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="5:7">
       <c r="E111" t="s">
         <v>568</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G111" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="5:7">
       <c r="E112" t="s">
         <v>570</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G112" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="5:7">
       <c r="E113" t="s">
         <v>572</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G113" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="5:7">
       <c r="E114" t="s">
         <v>574</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G114" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="5:7">
       <c r="E115" t="s">
         <v>576</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G115" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="5:7">
       <c r="E116" t="s">
         <v>578</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G116" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="5:7">
       <c r="E117" t="s">
         <v>580</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G117" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="5:7">
       <c r="E118" t="s">
         <v>582</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="G118" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="5:7">
       <c r="E119" t="s">
         <v>584</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G119" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="5:7">
       <c r="E120" t="s">
         <v>585</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G120" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="5:7">
       <c r="E121" t="s">
         <v>586</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G121" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="5:7">
       <c r="E122" t="s">
         <v>588</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G122" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="5:7">
       <c r="E123" t="s">
         <v>590</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G123" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="5:7">
       <c r="E124" t="s">
         <v>591</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G124" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="5:7">
       <c r="E125" t="s">
         <v>593</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G125" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="5:7">
       <c r="E126" t="s">
         <v>595</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G126" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="5:7">
       <c r="E127" t="s">
         <v>597</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G127" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="5:7">
       <c r="E128" t="s">
         <v>599</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G128" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="5:7">
       <c r="E129" t="s">
         <v>601</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G129" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="5:7">
       <c r="E130" t="s">
         <v>603</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G130" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="5:7">
       <c r="E131" t="s">
         <v>604</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G131" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="5:7">
       <c r="E132" t="s">
         <v>606</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G132" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="5:7">
       <c r="E133" t="s">
         <v>608</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G133" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="5:7">
       <c r="E134" t="s">
         <v>610</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G134" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="5:7">
       <c r="E135" t="s">
         <v>611</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G135" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="5:7">
       <c r="E136" t="s">
         <v>612</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G136" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="5:7">
       <c r="E137" t="s">
         <v>613</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="G137" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="5:7">
       <c r="E138" t="s">
         <v>614</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G138" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="5:7">
       <c r="E139" t="s">
         <v>615</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G139" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="5:7">
       <c r="E140" t="s">
         <v>616</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G140" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="5:7">
       <c r="E141" t="s">
         <v>617</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G141" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="5:7">
       <c r="E142" t="s">
         <v>619</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G142" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="5:7">
       <c r="E143" t="s">
         <v>620</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G143" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="5:7">
       <c r="E144" t="s">
         <v>621</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G144" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="5:7">
       <c r="E145" t="s">
         <v>622</v>
       </c>
-      <c r="F145">
+      <c r="F145" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G145" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="5:7">
       <c r="E146" t="s">
         <v>623</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G146" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="5:7">
       <c r="E147" t="s">
         <v>625</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G147" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="5:7">
       <c r="E148" t="s">
         <v>627</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G148" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="5:7">
       <c r="E149" t="s">
         <v>629</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G149" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="5:7">
       <c r="E150" t="s">
         <v>631</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G150" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="5:7">
       <c r="E151" t="s">
         <v>633</v>
       </c>
-      <c r="F151">
+      <c r="F151" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="G151" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="5:7">
       <c r="E152" t="s">
         <v>635</v>
       </c>
-      <c r="F152">
+      <c r="F152" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="G152" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="5:7">
       <c r="E153" t="s">
         <v>636</v>
       </c>
-      <c r="F153">
+      <c r="F153" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G153" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="5:7">
       <c r="E154" t="s">
         <v>637</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="G154" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="5:7">
       <c r="E155" t="s">
         <v>638</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G155" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="5:7">
       <c r="E156" t="s">
         <v>639</v>
       </c>
-      <c r="F156">
+      <c r="F156" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G156" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="5:7">
       <c r="E157" t="s">
         <v>640</v>
       </c>
-      <c r="F157">
+      <c r="F157" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G157" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="5:7">
       <c r="E158" t="s">
         <v>641</v>
       </c>
-      <c r="F158">
+      <c r="F158" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G158" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="5:7">
       <c r="E159" t="s">
         <v>643</v>
       </c>
-      <c r="F159">
+      <c r="F159" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G159" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="5:7">
       <c r="E160" t="s">
         <v>644</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G160" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="5:7">
       <c r="E161" t="s">
         <v>645</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G161" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="5:7">
       <c r="E162" t="s">
         <v>646</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G162" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="5:7">
       <c r="E163" t="s">
         <v>648</v>
       </c>
-      <c r="F163">
+      <c r="F163" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G163" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="5:7">
       <c r="E164" t="s">
         <v>650</v>
       </c>
-      <c r="F164">
+      <c r="F164" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G164" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="5:7">
       <c r="E165" t="s">
         <v>652</v>
       </c>
-      <c r="F165">
+      <c r="F165" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G165" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="5:7">
       <c r="E166" t="s">
         <v>653</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G166" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="5:7">
       <c r="E167" t="s">
         <v>654</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G167" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="5:7">
       <c r="E168" t="s">
         <v>655</v>
       </c>
-      <c r="F168">
+      <c r="F168" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G168" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="5:7">
       <c r="E169" t="s">
         <v>657</v>
       </c>
-      <c r="F169">
+      <c r="F169" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G169" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="5:7">
       <c r="E170" t="s">
         <v>659</v>
       </c>
-      <c r="F170">
+      <c r="F170" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G170" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="5:7">
       <c r="E171" t="s">
         <v>661</v>
       </c>
-      <c r="F171">
+      <c r="F171" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G171" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="5:7">
       <c r="E172" t="s">
         <v>663</v>
       </c>
-      <c r="F172">
+      <c r="F172" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G172" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="5:7">
       <c r="E173" t="s">
         <v>665</v>
       </c>
-      <c r="F173">
+      <c r="F173" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G173" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="5:7">
       <c r="E174" t="s">
         <v>667</v>
       </c>
-      <c r="F174">
+      <c r="F174" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G174" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="5:7">
       <c r="E175" t="s">
         <v>669</v>
       </c>
-      <c r="F175">
+      <c r="F175" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G175" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="5:7">
       <c r="E176" t="s">
         <v>671</v>
       </c>
-      <c r="F176">
+      <c r="F176" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G176" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="5:7">
       <c r="E177" t="s">
         <v>673</v>
       </c>
-      <c r="F177">
+      <c r="F177" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G177" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="5:7">
       <c r="E178" t="s">
         <v>675</v>
       </c>
-      <c r="F178">
+      <c r="F178" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G178" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="5:7">
       <c r="E179" t="s">
         <v>677</v>
       </c>
-      <c r="F179">
+      <c r="F179" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G179" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="5:7">
       <c r="E180" t="s">
         <v>679</v>
       </c>
-      <c r="F180">
+      <c r="F180" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G180" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="5:7">
       <c r="E181" t="s">
         <v>681</v>
       </c>
-      <c r="F181">
+      <c r="F181" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G181" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="5:7">
       <c r="E182" t="s">
         <v>683</v>
       </c>
-      <c r="F182">
+      <c r="F182" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G182" t="s">
         <v>684</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:23">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:23">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -10371,10 +11986,10 @@
       <c r="C7" t="s">
         <v>685</v>
       </c>
-      <c r="D7" t="s" s="63">
+      <c r="D7" s="58" t="s">
         <v>686</v>
       </c>
-      <c r="E7" t="s" s="64">
+      <c r="E7" s="59" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -10383,7 +11998,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="65">
+      <c r="H7" s="60" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -10392,16 +12007,16 @@
       <c r="J7" t="s">
         <v>688</v>
       </c>
-      <c r="K7" t="s" s="66">
+      <c r="K7" s="61" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>689</v>
       </c>
-      <c r="M7" t="s" s="67">
+      <c r="M7" s="62" t="s">
         <v>690</v>
       </c>
-      <c r="N7" t="s" s="68">
+      <c r="N7" s="63" t="s">
         <v>691</v>
       </c>
       <c r="O7" t="s">
@@ -10428,11 +12043,11 @@
       <c r="V7" t="s">
         <v>698</v>
       </c>
-      <c r="W7" t="s" s="69">
+      <c r="W7" s="64" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23">
       <c r="E8" t="s">
         <v>700</v>
       </c>
@@ -10491,7 +12106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23">
       <c r="E9" t="s">
         <v>706</v>
       </c>
@@ -10550,7 +12165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23">
       <c r="E10" t="s">
         <v>711</v>
       </c>
@@ -10572,8 +12187,9 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <f>角色权限!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>705</v>
@@ -10606,7 +12222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -10616,16 +12232,16 @@
       <c r="C12" t="s">
         <v>717</v>
       </c>
-      <c r="D12" t="s" s="70">
+      <c r="D12" s="65" t="s">
         <v>718</v>
       </c>
-      <c r="E12" t="s" s="71">
+      <c r="E12" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="72">
+      <c r="F12" s="67" t="s">
         <v>719</v>
       </c>
-      <c r="G12" t="s" s="73">
+      <c r="G12" s="68" t="s">
         <v>720</v>
       </c>
       <c r="H12" t="s">
@@ -10634,19 +12250,21 @@
       <c r="I12" t="s">
         <v>722</v>
       </c>
-      <c r="J12" t="s" s="74">
+      <c r="J12" s="69" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23">
       <c r="E13" t="s">
         <v>724</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G13">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G13" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="H13" t="s">
         <v>725</v>
@@ -10658,15 +12276,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23">
       <c r="E14" t="s">
         <v>728</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G14">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G14" t="str">
         <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="H14" t="s">
         <v>725</v>
@@ -10678,15 +12298,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23">
       <c r="E15" t="s">
         <v>729</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G15">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G15" t="str">
         <f>菜单SAAS版!$E$37</f>
+        <v>iam_menu-37</v>
       </c>
       <c r="H15" t="s">
         <v>725</v>
@@ -10698,15 +12320,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23">
       <c r="E16" t="s">
         <v>730</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G16">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G16" t="str">
         <f>菜单SAAS版!$E$37</f>
+        <v>iam_menu-37</v>
       </c>
       <c r="H16" t="s">
         <v>725</v>
@@ -10718,15 +12342,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:10">
       <c r="E17" t="s">
         <v>731</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G17">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单SAAS版!$E$37</f>
+        <v>iam_menu-37</v>
       </c>
       <c r="H17" t="s">
         <v>725</v>
@@ -10738,15 +12364,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:10">
       <c r="E18" t="s">
         <v>732</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G18">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G18" t="str">
         <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="H18" t="s">
         <v>725</v>
@@ -10758,15 +12386,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:10">
       <c r="E19" t="s">
         <v>733</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G19">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G19" t="str">
         <f>菜单SAAS版!$E$39</f>
+        <v>iam_menu-39</v>
       </c>
       <c r="H19" t="s">
         <v>725</v>
@@ -10778,15 +12408,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:10">
       <c r="E20" t="s">
         <v>734</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G20">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="H20" t="s">
         <v>725</v>
@@ -10798,15 +12430,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:10">
       <c r="E21" t="s">
         <v>735</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G21">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G21" t="str">
         <f>菜单SAAS版!$E$42</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="H21" t="s">
         <v>725</v>
@@ -10818,15 +12452,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:10">
       <c r="E22" t="s">
         <v>736</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G22">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G22" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="H22" t="s">
         <v>725</v>
@@ -10838,15 +12474,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:10">
       <c r="E23" t="s">
         <v>737</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G23">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G23" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="H23" t="s">
         <v>725</v>
@@ -10858,15 +12496,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:10">
       <c r="E24" t="s">
         <v>738</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G24">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单SAAS版!$E$45</f>
+        <v>iam_menu-45</v>
       </c>
       <c r="H24" t="s">
         <v>725</v>
@@ -10878,15 +12518,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:10">
       <c r="E25" t="s">
         <v>739</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G25">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G25" t="str">
         <f>菜单SAAS版!$E$47</f>
+        <v>iam_menu-47</v>
       </c>
       <c r="H25" t="s">
         <v>725</v>
@@ -10898,15 +12540,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:10">
       <c r="E26" t="s">
         <v>740</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G26">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G26" t="str">
         <f>菜单SAAS版!$E$48</f>
+        <v>iam_menu-48</v>
       </c>
       <c r="H26" t="s">
         <v>725</v>
@@ -10918,15 +12562,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:10">
       <c r="E27" t="s">
         <v>741</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G27">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G27" t="str">
         <f>菜单SAAS版!$E$49</f>
+        <v>iam_menu-49</v>
       </c>
       <c r="H27" t="s">
         <v>725</v>
@@ -10938,15 +12584,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:10">
       <c r="E28" t="s">
         <v>742</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G28">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G28" t="str">
         <f>菜单SAAS版!$E$50</f>
+        <v>iam_menu-50</v>
       </c>
       <c r="H28" t="s">
         <v>725</v>
@@ -10958,15 +12606,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:10">
       <c r="E29" t="s">
         <v>743</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G29">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G29" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="H29" t="s">
         <v>725</v>
@@ -10978,15 +12628,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:10">
       <c r="E30" t="s">
         <v>744</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G30">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G30" t="str">
         <f>菜单SAAS版!$E$52</f>
+        <v>iam_menu-52</v>
       </c>
       <c r="H30" t="s">
         <v>725</v>
@@ -10998,15 +12650,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:10">
       <c r="E31" t="s">
         <v>745</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G31">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G31" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="H31" t="s">
         <v>725</v>
@@ -11018,15 +12672,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:10">
       <c r="E32" t="s">
         <v>746</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G32">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G32" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H32" t="s">
         <v>725</v>
@@ -11038,15 +12694,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:10">
       <c r="E33" t="s">
         <v>747</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G33">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G33" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="H33" t="s">
         <v>725</v>
@@ -11058,15 +12716,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:10">
       <c r="E34" t="s">
         <v>748</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G34">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G34" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H34" t="s">
         <v>725</v>
@@ -11078,15 +12738,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:10">
       <c r="E35" t="s">
         <v>749</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G35">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G35" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H35" t="s">
         <v>725</v>
@@ -11098,15 +12760,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:10">
       <c r="E36" t="s">
         <v>750</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G36">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G36" t="str">
         <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H36" t="s">
         <v>725</v>
@@ -11118,15 +12782,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:10">
       <c r="E37" t="s">
         <v>751</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G37">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G37" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H37" t="s">
         <v>725</v>
@@ -11138,15 +12804,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:10">
       <c r="E38" t="s">
         <v>752</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G38">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G38" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H38" t="s">
         <v>725</v>
@@ -11158,15 +12826,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:10">
       <c r="E39" t="s">
         <v>753</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G39">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G39" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H39" t="s">
         <v>725</v>
@@ -11178,15 +12848,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:10">
       <c r="E40" t="s">
         <v>754</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G40">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G40" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="H40" t="s">
         <v>725</v>
@@ -11198,15 +12870,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:10">
       <c r="E41" t="s">
         <v>755</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G41">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G41" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H41" t="s">
         <v>725</v>
@@ -11218,15 +12892,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:10">
       <c r="E42" t="s">
         <v>756</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G42">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G42" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H42" t="s">
         <v>725</v>
@@ -11238,15 +12914,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:10">
       <c r="E43" t="s">
         <v>757</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G43">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G43" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H43" t="s">
         <v>725</v>
@@ -11258,15 +12936,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:10">
       <c r="E44" t="s">
         <v>758</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G44">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G44" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H44" t="s">
         <v>725</v>
@@ -11278,15 +12958,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:10">
       <c r="E45" t="s">
         <v>759</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G45">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G45" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="H45" t="s">
         <v>725</v>
@@ -11298,15 +12980,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:10">
       <c r="E46" t="s">
         <v>760</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G46">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G46" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H46" t="s">
         <v>725</v>
@@ -11318,15 +13002,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:10">
       <c r="E47" t="s">
         <v>761</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G47">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G47" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="H47" t="s">
         <v>725</v>
@@ -11338,15 +13024,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:10">
       <c r="E48" t="s">
         <v>762</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G48">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G48" t="str">
         <f>菜单SAAS版!$E$30</f>
+        <v>iam_menu-30</v>
       </c>
       <c r="H48" t="s">
         <v>725</v>
@@ -11358,15 +13046,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:10">
       <c r="E49" t="s">
         <v>763</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G49">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G49" t="str">
         <f>菜单SAAS版!$E$31</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H49" t="s">
         <v>725</v>
@@ -11378,15 +13068,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:10">
       <c r="E50" t="s">
         <v>764</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G50">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G50" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="H50" t="s">
         <v>725</v>
@@ -11398,15 +13090,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:10">
       <c r="E51" t="s">
         <v>765</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G51">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G51" t="str">
         <f>菜单SAAS版!$E$57</f>
+        <v>iam_menu-57</v>
       </c>
       <c r="H51" t="s">
         <v>725</v>
@@ -11418,15 +13112,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:10">
       <c r="E52" t="s">
         <v>766</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G52">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G52" t="str">
         <f>菜单SAAS版!$E$58</f>
+        <v>iam_menu-58</v>
       </c>
       <c r="H52" t="s">
         <v>725</v>
@@ -11438,15 +13134,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:10">
       <c r="E53" t="s">
         <v>767</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G53">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G53" t="str">
         <f>菜单SAAS版!$E$59</f>
+        <v>iam_menu-59</v>
       </c>
       <c r="H53" t="s">
         <v>725</v>
@@ -11458,15 +13156,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:10">
       <c r="E54" t="s">
         <v>768</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G54">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G54" t="str">
         <f>菜单SAAS版!$E$60</f>
+        <v>iam_menu-60</v>
       </c>
       <c r="H54" t="s">
         <v>725</v>
@@ -11478,15 +13178,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:10">
       <c r="E55" t="s">
         <v>769</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G55">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G55" t="str">
         <f>菜单SAAS版!$E$61</f>
+        <v>iam_menu-61</v>
       </c>
       <c r="H55" t="s">
         <v>725</v>
@@ -11498,15 +13200,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:10">
       <c r="E56" t="s">
         <v>770</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G56">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G56" t="str">
         <f>菜单SAAS版!$E$62</f>
+        <v>iam_menu-62</v>
       </c>
       <c r="H56" t="s">
         <v>725</v>
@@ -11518,15 +13222,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:10">
       <c r="E57" t="s">
         <v>771</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G57">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G57" t="str">
         <f>菜单SAAS版!$E$63</f>
+        <v>iam_menu-63</v>
       </c>
       <c r="H57" t="s">
         <v>725</v>
@@ -11538,15 +13244,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:10">
       <c r="E58" t="s">
         <v>772</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G58">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G58" t="str">
         <f>菜单SAAS版!$E$64</f>
+        <v>iam_menu-64</v>
       </c>
       <c r="H58" t="s">
         <v>725</v>
@@ -11558,15 +13266,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:10">
       <c r="E59" t="s">
         <v>773</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G59">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G59" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="H59" t="s">
         <v>725</v>
@@ -11579,6 +13289,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/hzero-iam-menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D4605-8EC1-4F07-9C64-0DFA0BE5BA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCBA887-4359-4AF3-920A-F4EB809BDECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,6 @@
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2850,51 +2842,27 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
-    <t>hzero-admin.api-limit-site.createOrUpdate</t>
-  </si>
-  <si>
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hzero-admin.api-limit-site.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hzero-admin.api-monitor-rule-site.apply</t>
-  </si>
-  <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
-    <t>hzero-admin.api-monitor-rule-site.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>hzero-admin.api-monitor-rule-site.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hzero-admin.api-monitor-rule-site.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hzero-admin.api-monitor-site.blackList</t>
-  </si>
-  <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hzero-admin.api-monitor-site.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
@@ -2958,123 +2926,63 @@
     <t>iam_menu_permission-26</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-dimension-site-level.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-27</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-dimension-site-level.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-28</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-dimension-site-level.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-29</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-dimension-site-level.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-dimension-site-level.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-line-site-level.batchUpdate</t>
-  </si>
-  <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-line-site-level.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-line-site-level.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-line-site-level.ifAllowChange</t>
-  </si>
-  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-line-site-level.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-line-site-level.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-line-site-level.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-site-level.batchUpdate</t>
-  </si>
-  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-site-level.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-site-level.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-site-level.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-42</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-site-level.queryDetail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-43</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-site-level.refresh</t>
-  </si>
-  <si>
     <t>iam_menu_permission-44</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-site-level.saveDetail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-45</t>
   </si>
   <si>
-    <t>hzero-admin.gateway-rate-limit-site-level.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-46</t>
   </si>
   <si>
@@ -3105,318 +3013,162 @@
     <t>iam_menu_permission-51</t>
   </si>
   <si>
-    <t>hzero-admin.access-statistics-site.queryApiInvokeCount</t>
-  </si>
-  <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
-    <t>hzero-admin.service-instance-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-53</t>
   </si>
   <si>
-    <t>hzero-admin.service-instance-site.query</t>
-  </si>
-  <si>
     <t>iam_menu_permission-54</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-55</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-56</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-57</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.save</t>
-  </si>
-  <si>
     <t>iam_menu_permission-58</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-group-site.setDefaultDataSource</t>
-  </si>
-  <si>
     <t>iam_menu_permission-59</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-site.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-60</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-site.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-61</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-62</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-site.order</t>
-  </si>
-  <si>
     <t>iam_menu_permission-63</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-site.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-64</t>
   </si>
   <si>
-    <t>hzero-admin.sp-logic-datasource-site.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-65</t>
   </si>
   <si>
-    <t>hzero-admin.sp-rule-header-site.applyProxyConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-66</t>
   </si>
   <si>
-    <t>hzero-admin.sp-rule-header-site.binding</t>
-  </si>
-  <si>
     <t>iam_menu_permission-67</t>
   </si>
   <si>
-    <t>hzero-admin.sp-rule-header-site.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-68</t>
   </si>
   <si>
-    <t>hzero-admin.sp-rule-header-site.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-69</t>
   </si>
   <si>
-    <t>hzero-admin.sp-rule-header-site.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-70</t>
   </si>
   <si>
-    <t>hzero-admin.sp-rule-header-site.save</t>
-  </si>
-  <si>
     <t>iam_menu_permission-71</t>
   </si>
   <si>
-    <t>hzero-admin.sp-rule-line-site.pageRuleLineDto</t>
-  </si>
-  <si>
     <t>iam_menu_permission-72</t>
   </si>
   <si>
-    <t>hzero-admin.sp-rule-line-site.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-73</t>
   </si>
   <si>
-    <t>hzero-admin.swagger-site.queryPathDetail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-74</t>
   </si>
   <si>
-    <t>hzero-admin.swagger-site.querySwaggerResources</t>
-  </si>
-  <si>
     <t>iam_menu_permission-75</t>
   </si>
   <si>
-    <t>hzero-admin.swagger-site.queryTreeMenu</t>
-  </si>
-  <si>
     <t>iam_menu_permission-76</t>
   </si>
   <si>
-    <t>hzero-iam.doc-type-site-level.queryDocTypeByOptions</t>
-  </si>
-  <si>
     <t>iam_menu_permission-77</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-78</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-79</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.disable</t>
-  </si>
-  <si>
     <t>iam_menu_permission-80</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.enable</t>
-  </si>
-  <si>
     <t>iam_menu_permission-81</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-82</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.pageEnabledRules</t>
-  </si>
-  <si>
     <t>iam_menu_permission-83</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.pageNodeRuleTenant</t>
-  </si>
-  <si>
     <t>iam_menu_permission-84</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-85</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.removeRuleTenant</t>
-  </si>
-  <si>
     <t>iam_menu_permission-86</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule-site.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-87</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-88</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-89</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.disable</t>
-  </si>
-  <si>
     <t>iam_menu_permission-90</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.enable</t>
-  </si>
-  <si>
     <t>iam_menu_permission-91</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-92</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.pageEnabledRules</t>
-  </si>
-  <si>
     <t>iam_menu_permission-93</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.pageNodeRuleTenant</t>
-  </si>
-  <si>
     <t>iam_menu_permission-94</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-95</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.removeRuleTenant</t>
-  </si>
-  <si>
     <t>iam_menu_permission-96</t>
   </si>
   <si>
-    <t>hzero-admin.node-rule.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-97</t>
   </si>
   <si>
-    <t>hzero-iam.hiam-permission-site-level.pageApi</t>
-  </si>
-  <si>
     <t>iam_menu_permission-98</t>
   </si>
   <si>
-    <t>hzero-iam.hiam-user-site-level.paging</t>
-  </si>
-  <si>
     <t>iam_menu_permission-99</t>
   </si>
   <si>
-    <t>hzero-iam.iam-tenant-site-level.pagingTenants</t>
-  </si>
-  <si>
     <t>iam_menu_permission-100</t>
   </si>
   <si>
-    <t>hzero-iam.tenant-site-level.pagingTenants</t>
-  </si>
-  <si>
     <t>iam_menu_permission-101</t>
   </si>
   <si>
     <t>iam_menu_permission-102</t>
   </si>
   <si>
-    <t>hzero-admin.access-statistics-site.queryInstanceApiCount</t>
-  </si>
-  <si>
     <t>iam_menu_permission-103</t>
   </si>
   <si>
-    <t>hzero-admin.access-statistics-site.queryServiceInvokeCount</t>
-  </si>
-  <si>
     <t>iam_menu_permission-104</t>
   </si>
   <si>
@@ -3435,15 +3187,9 @@
     <t>iam_menu_permission-109</t>
   </si>
   <si>
-    <t>hzero-admin.service-controller-site-level.createService</t>
-  </si>
-  <si>
     <t>iam_menu_permission-110</t>
   </si>
   <si>
-    <t>hzero-admin.service-controller-site-level.updateService</t>
-  </si>
-  <si>
     <t>iam_menu_permission-111</t>
   </si>
   <si>
@@ -3456,54 +3202,30 @@
     <t>iam_menu_permission-113</t>
   </si>
   <si>
-    <t>hzero-admin.service-config-site-level.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-114</t>
   </si>
   <si>
-    <t>hzero-admin.service-config-site-level.delete</t>
-  </si>
-  <si>
     <t>iam_menu_permission-115</t>
   </si>
   <si>
-    <t>hzero-admin.service-config-site-level.pageServiceConfigList</t>
-  </si>
-  <si>
     <t>iam_menu_permission-116</t>
   </si>
   <si>
-    <t>hzero-admin.service-config-site-level.queryYaml</t>
-  </si>
-  <si>
     <t>iam_menu_permission-117</t>
   </si>
   <si>
-    <t>hzero-admin.service-config-site-level.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-118</t>
   </si>
   <si>
     <t>iam_menu_permission-119</t>
   </si>
   <si>
-    <t>hzero-admin.service-controller-site-level.pageServices</t>
-  </si>
-  <si>
     <t>iam_menu_permission-120</t>
   </si>
   <si>
-    <t>hzero-admin.service-controller-site-level.removeService</t>
-  </si>
-  <si>
     <t>iam_menu_permission-121</t>
   </si>
   <si>
-    <t>hzero-admin.service-controller-site-level.serviceDetails</t>
-  </si>
-  <si>
     <t>iam_menu_permission-122</t>
   </si>
   <si>
@@ -3528,9 +3250,6 @@
     <t>iam_menu_permission-129</t>
   </si>
   <si>
-    <t>hzero-admin.service-controller-site-level.downloadYml</t>
-  </si>
-  <si>
     <t>iam_menu_permission-130</t>
   </si>
   <si>
@@ -3546,45 +3265,24 @@
     <t>iam_menu_permission-134</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-135</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.detailById</t>
-  </si>
-  <si>
     <t>iam_menu_permission-136</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.detailByServiceCode</t>
-  </si>
-  <si>
     <t>iam_menu_permission-137</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.listByServiceCode</t>
-  </si>
-  <si>
     <t>iam_menu_permission-138</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.remove</t>
-  </si>
-  <si>
     <t>iam_menu_permission-139</t>
   </si>
   <si>
-    <t>hzero-admin.service-route-site-level.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-140</t>
   </si>
   <si>
-    <t>hzero-admin.service-version-site.page</t>
-  </si>
-  <si>
     <t>iam_menu_permission-141</t>
   </si>
   <si>
@@ -3646,51 +3344,6 @@
   </si>
   <si>
     <t>iam_menu_permission-160</t>
-  </si>
-  <si>
-    <t>hzero-admin.service-route-site-level.pageRoutes</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule-user.batchCreate</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule-user.batchDelete</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule-user.create</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule-user.detail</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule-user.list</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule-user.remove</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule-user.userList</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule-user.users</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule.create</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule.detail</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule.enable</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule.list</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule.remove</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule.update</t>
   </si>
   <si>
     <t>角色</t>
@@ -4025,6 +3678,345 @@
   <si>
     <t>组织管理员</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon-admin.api-limit-site.createOrUpdate</t>
+  </si>
+  <si>
+    <t>choerodon-admin.api-limit-site.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.api-monitor-rule-site.apply</t>
+  </si>
+  <si>
+    <t>choerodon-admin.api-monitor-rule-site.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.api-monitor-rule-site.delete</t>
+  </si>
+  <si>
+    <t>choerodon-admin.api-monitor-rule-site.page</t>
+  </si>
+  <si>
+    <t>choerodon-admin.api-monitor-site.blackList</t>
+  </si>
+  <si>
+    <t>choerodon-admin.api-monitor-site.page</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-dimension-site-level.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-dimension-site-level.delete</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-dimension-site-level.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-dimension-site-level.list</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-dimension-site-level.update</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-line-site-level.batchUpdate</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-line-site-level.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-line-site-level.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-line-site-level.ifAllowChange</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-line-site-level.list</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-line-site-level.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-line-site-level.update</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-site-level.batchUpdate</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-site-level.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-site-level.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-site-level.list</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-site-level.queryDetail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-site-level.refresh</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-site-level.saveDetail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.gateway-rate-limit-site-level.update</t>
+  </si>
+  <si>
+    <t>choerodon-admin.access-statistics-site.queryApiInvokeCount</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-instance-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-instance-site.query</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-group-site.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-group-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-group-site.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-group-site.save</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-group-site.setDefaultDataSource</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-site.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-site.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-site.order</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-site.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-logic-datasource-site.update</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-rule-header-site.applyProxyConfig</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-rule-header-site.binding</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-rule-header-site.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-rule-header-site.list</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-rule-header-site.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-rule-header-site.save</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-rule-line-site.pageRuleLineDto</t>
+  </si>
+  <si>
+    <t>choerodon-admin.sp-rule-line-site.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.swagger-site.queryPathDetail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.swagger-site.querySwaggerResources</t>
+  </si>
+  <si>
+    <t>choerodon-admin.swagger-site.queryTreeMenu</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.disable</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.enable</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.page</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.pageEnabledRules</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.pageNodeRuleTenant</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.removeRuleTenant</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule-site.update</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.disable</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.enable</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.page</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.pageEnabledRules</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.pageNodeRuleTenant</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.removeRuleTenant</t>
+  </si>
+  <si>
+    <t>choerodon-admin.node-rule.update</t>
+  </si>
+  <si>
+    <t>choerodon-admin.access-statistics-site.queryInstanceApiCount</t>
+  </si>
+  <si>
+    <t>choerodon-admin.access-statistics-site.queryServiceInvokeCount</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-controller-site-level.createService</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-controller-site-level.updateService</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-config-site-level.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-config-site-level.delete</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-config-site-level.pageServiceConfigList</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-config-site-level.queryYaml</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-config-site-level.update</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-controller-site-level.pageServices</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-controller-site-level.removeService</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-controller-site-level.serviceDetails</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-controller-site-level.downloadYml</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.detailById</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.detailByServiceCode</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.listByServiceCode</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.update</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-version-site.page</t>
+  </si>
+  <si>
+    <t>choerodon-admin.service-route-site-level.pageRoutes</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule-user.batchCreate</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule-user.batchDelete</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule-user.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule-user.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule-user.list</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule-user.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule-user.userList</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule-user.users</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule.create</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule.detail</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule.enable</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule.list</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule.remove</t>
+  </si>
+  <si>
+    <t>choerodon-admin.url-rule.update</t>
+  </si>
+  <si>
+    <t>choerodon-iam.doc-type-site-level.queryDocTypeByOptions</t>
+  </si>
+  <si>
+    <t>choerodon-iam.hiam-permission-site-level.pageApi</t>
+  </si>
+  <si>
+    <t>choerodon-iam.hiam-user-site-level.paging</t>
+  </si>
+  <si>
+    <t>choerodon-iam.iam-tenant-site-level.pagingTenants</t>
+  </si>
+  <si>
+    <t>choerodon-iam.tenant-site-level.pagingTenants</t>
   </si>
 </sst>
 </file>
@@ -4753,6 +4745,7 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4768,7 +4761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5137,11 +5129,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5150,21 +5142,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5275,11 +5267,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -5317,19 +5309,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="86"/>
+      <c r="E25" s="87"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="86"/>
+      <c r="E26" s="87"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -7966,8 +7958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -8029,1831 +8021,1831 @@
         <v>iam_menu-36</v>
       </c>
       <c r="G8" t="s">
-        <v>331</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G9" t="s">
-        <v>333</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G10" t="s">
-        <v>335</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G11" t="s">
-        <v>337</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G12" t="s">
-        <v>339</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G13" t="s">
-        <v>341</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G14" t="s">
-        <v>343</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$36</f>
         <v>iam_menu-36</v>
       </c>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G16" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G17" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G18" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G19" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G21" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G22" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G23" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G24" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G25" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G26" t="s">
-        <v>367</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G27" t="s">
-        <v>369</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G29" t="s">
-        <v>373</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G30" t="s">
-        <v>375</v>
+        <v>622</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G31" t="s">
-        <v>377</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G32" t="s">
-        <v>379</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G33" t="s">
-        <v>381</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G34" t="s">
-        <v>383</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G35" t="s">
-        <v>385</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G36" t="s">
-        <v>387</v>
+        <v>628</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G37" t="s">
-        <v>389</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G38" t="s">
-        <v>391</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G39" t="s">
-        <v>393</v>
+        <v>631</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G40" t="s">
-        <v>395</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G41" t="s">
-        <v>397</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G42" t="s">
-        <v>399</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G43" t="s">
-        <v>401</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G44" t="s">
-        <v>403</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G45" t="s">
-        <v>405</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G46" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G47" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G48" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G49" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G50" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G51" t="s">
-        <v>416</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" t="s">
-        <v>418</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G53" t="s">
-        <v>420</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G54" t="s">
-        <v>422</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G55" t="s">
-        <v>424</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G56" t="s">
-        <v>426</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G57" t="s">
-        <v>428</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G58" t="s">
-        <v>430</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G59" t="s">
-        <v>432</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G60" t="s">
-        <v>434</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G61" t="s">
-        <v>436</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G62" t="s">
-        <v>438</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G63" t="s">
-        <v>440</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G64" t="s">
-        <v>442</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G65" t="s">
-        <v>444</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G66" t="s">
-        <v>446</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G67" t="s">
-        <v>448</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G68" t="s">
-        <v>450</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G69" t="s">
-        <v>452</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G70" t="s">
-        <v>454</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G71" t="s">
-        <v>456</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G72" t="s">
-        <v>458</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G73" t="s">
-        <v>460</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G74" t="s">
-        <v>462</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G75" t="s">
-        <v>464</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G76" t="s">
-        <v>466</v>
+        <v>718</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G77" t="s">
-        <v>468</v>
+        <v>663</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G78" t="s">
-        <v>470</v>
+        <v>664</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G79" t="s">
-        <v>472</v>
+        <v>665</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G80" t="s">
-        <v>474</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G81" t="s">
-        <v>476</v>
+        <v>667</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G82" t="s">
-        <v>478</v>
+        <v>668</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G83" t="s">
-        <v>480</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G84" t="s">
-        <v>482</v>
+        <v>670</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G85" t="s">
-        <v>484</v>
+        <v>671</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G86" t="s">
-        <v>486</v>
+        <v>672</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G87" t="s">
-        <v>488</v>
+        <v>673</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>489</v>
+        <v>424</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G88" t="s">
-        <v>490</v>
+        <v>674</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G89" t="s">
-        <v>492</v>
+        <v>675</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>493</v>
+        <v>426</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G90" t="s">
-        <v>494</v>
+        <v>676</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>495</v>
+        <v>427</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G91" t="s">
-        <v>496</v>
+        <v>677</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G92" t="s">
-        <v>498</v>
+        <v>678</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G93" t="s">
-        <v>500</v>
+        <v>679</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>501</v>
+        <v>430</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G94" t="s">
-        <v>502</v>
+        <v>680</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>503</v>
+        <v>431</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G95" t="s">
-        <v>504</v>
+        <v>681</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>505</v>
+        <v>432</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G96" t="s">
-        <v>506</v>
+        <v>682</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G97" t="s">
-        <v>508</v>
+        <v>719</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>509</v>
+        <v>434</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G98" t="s">
-        <v>510</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G99" t="s">
-        <v>512</v>
+        <v>721</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>513</v>
+        <v>436</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$46</f>
         <v>iam_menu-46</v>
       </c>
       <c r="G100" t="s">
-        <v>514</v>
+        <v>722</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>515</v>
+        <v>437</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G101" t="s">
-        <v>416</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>516</v>
+        <v>438</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G102" t="s">
-        <v>517</v>
+        <v>683</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>518</v>
+        <v>439</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G103" t="s">
-        <v>519</v>
+        <v>684</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G104" t="s">
-        <v>462</v>
+        <v>661</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>521</v>
+        <v>441</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G105" t="s">
-        <v>460</v>
+        <v>660</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>522</v>
+        <v>442</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G106" t="s">
-        <v>464</v>
+        <v>662</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>523</v>
+        <v>443</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G107" t="s">
-        <v>418</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>524</v>
+        <v>444</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G108" t="s">
-        <v>420</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>525</v>
+        <v>445</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G109" t="s">
-        <v>526</v>
+        <v>685</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>527</v>
+        <v>446</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G110" t="s">
-        <v>528</v>
+        <v>686</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>529</v>
+        <v>447</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G111" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>530</v>
+        <v>448</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G112" t="s">
-        <v>531</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>532</v>
+        <v>450</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G113" t="s">
-        <v>533</v>
+        <v>687</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>534</v>
+        <v>451</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G114" t="s">
-        <v>535</v>
+        <v>688</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>536</v>
+        <v>452</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G115" t="s">
-        <v>537</v>
+        <v>689</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>538</v>
+        <v>453</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G116" t="s">
-        <v>539</v>
+        <v>690</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>540</v>
+        <v>454</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G117" t="s">
-        <v>541</v>
+        <v>691</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>542</v>
+        <v>455</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G118" t="s">
-        <v>526</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G119" t="s">
-        <v>544</v>
+        <v>692</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>545</v>
+        <v>457</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G120" t="s">
-        <v>546</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="F121" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G121" t="s">
-        <v>548</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
       <c r="F122" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G122" t="s">
-        <v>528</v>
+        <v>686</v>
       </c>
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="F123" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G123" t="s">
-        <v>546</v>
+        <v>693</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="F124" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G124" t="s">
-        <v>544</v>
+        <v>692</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>552</v>
+        <v>462</v>
       </c>
       <c r="F125" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G125" t="s">
-        <v>548</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="F126" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G126" t="s">
-        <v>533</v>
+        <v>687</v>
       </c>
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="F127" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G127" t="s">
-        <v>541</v>
+        <v>691</v>
       </c>
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="F128" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G128" t="s">
-        <v>526</v>
+        <v>685</v>
       </c>
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="F129" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G129" t="s">
-        <v>557</v>
+        <v>695</v>
       </c>
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>558</v>
+        <v>467</v>
       </c>
       <c r="F130" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G130" t="s">
-        <v>544</v>
+        <v>692</v>
       </c>
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>559</v>
+        <v>468</v>
       </c>
       <c r="F131" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G131" t="s">
-        <v>546</v>
+        <v>693</v>
       </c>
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>560</v>
+        <v>469</v>
       </c>
       <c r="F132" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G132" t="s">
-        <v>548</v>
+        <v>694</v>
       </c>
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="F133" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G133" t="s">
-        <v>528</v>
+        <v>686</v>
       </c>
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>562</v>
+        <v>471</v>
       </c>
       <c r="F134" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G134" t="s">
-        <v>563</v>
+        <v>696</v>
       </c>
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>564</v>
+        <v>472</v>
       </c>
       <c r="F135" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G135" t="s">
-        <v>565</v>
+        <v>697</v>
       </c>
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="F136" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G136" t="s">
-        <v>567</v>
+        <v>698</v>
       </c>
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
       <c r="F137" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G137" t="s">
-        <v>569</v>
+        <v>699</v>
       </c>
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
       <c r="F138" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G138" t="s">
-        <v>571</v>
+        <v>700</v>
       </c>
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>572</v>
+        <v>476</v>
       </c>
       <c r="F139" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G139" t="s">
-        <v>573</v>
+        <v>701</v>
       </c>
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>574</v>
+        <v>477</v>
       </c>
       <c r="F140" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G140" t="s">
-        <v>575</v>
+        <v>702</v>
       </c>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>576</v>
+        <v>478</v>
       </c>
       <c r="F141" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G141" t="s">
-        <v>577</v>
+        <v>479</v>
       </c>
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="F142" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G142" t="s">
-        <v>535</v>
+        <v>688</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>579</v>
+        <v>481</v>
       </c>
       <c r="F143" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G143" t="s">
-        <v>537</v>
+        <v>689</v>
       </c>
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="F144" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G144" t="s">
-        <v>539</v>
+        <v>690</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>581</v>
+        <v>483</v>
       </c>
       <c r="F145" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G145" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="F146" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G146" t="s">
-        <v>597</v>
+        <v>703</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>583</v>
+        <v>485</v>
       </c>
       <c r="F147" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
-      <c r="G147" t="s">
-        <v>598</v>
+      <c r="G147" s="86" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>584</v>
+        <v>486</v>
       </c>
       <c r="F148" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G148" t="s">
-        <v>599</v>
+        <v>705</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>585</v>
+        <v>487</v>
       </c>
       <c r="F149" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G149" t="s">
-        <v>600</v>
+        <v>706</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>586</v>
+        <v>488</v>
       </c>
       <c r="F150" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G150" t="s">
-        <v>601</v>
+        <v>707</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>587</v>
+        <v>489</v>
       </c>
       <c r="F151" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G151" t="s">
-        <v>602</v>
+        <v>708</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
       <c r="F152" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G152" t="s">
-        <v>603</v>
+        <v>709</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>589</v>
+        <v>491</v>
       </c>
       <c r="F153" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G153" t="s">
-        <v>604</v>
+        <v>710</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>590</v>
+        <v>492</v>
       </c>
       <c r="F154" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G154" t="s">
-        <v>605</v>
+        <v>711</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>591</v>
+        <v>493</v>
       </c>
       <c r="F155" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G155" t="s">
-        <v>606</v>
+        <v>712</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>592</v>
+        <v>494</v>
       </c>
       <c r="F156" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G156" t="s">
-        <v>607</v>
+        <v>713</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>593</v>
+        <v>495</v>
       </c>
       <c r="F157" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G157" t="s">
-        <v>608</v>
+        <v>714</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>594</v>
+        <v>496</v>
       </c>
       <c r="F158" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G158" t="s">
-        <v>609</v>
+        <v>715</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>595</v>
+        <v>497</v>
       </c>
       <c r="F159" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G159" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>596</v>
+        <v>498</v>
       </c>
       <c r="F160" t="str">
         <f>菜单SAAS版!$E$56</f>
         <v>iam_menu-56</v>
       </c>
       <c r="G160" t="s">
-        <v>611</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -9866,7 +9858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
@@ -9905,10 +9897,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>499</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>613</v>
+        <v>500</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>54</v>
@@ -9923,72 +9915,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>614</v>
+        <v>501</v>
       </c>
       <c r="J7" t="s">
-        <v>615</v>
+        <v>502</v>
       </c>
       <c r="K7" s="68" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>616</v>
+        <v>503</v>
       </c>
       <c r="M7" s="69" t="s">
-        <v>617</v>
+        <v>504</v>
       </c>
       <c r="N7" s="70" t="s">
-        <v>618</v>
+        <v>505</v>
       </c>
       <c r="O7" t="s">
-        <v>619</v>
+        <v>506</v>
       </c>
       <c r="P7" t="s">
-        <v>620</v>
+        <v>507</v>
       </c>
       <c r="Q7" t="s">
-        <v>621</v>
+        <v>508</v>
       </c>
       <c r="R7" t="s">
-        <v>622</v>
+        <v>509</v>
       </c>
       <c r="S7" t="s">
-        <v>623</v>
+        <v>510</v>
       </c>
       <c r="T7" t="s">
-        <v>624</v>
+        <v>511</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>625</v>
+        <v>512</v>
       </c>
       <c r="W7" s="71" t="s">
-        <v>626</v>
+        <v>513</v>
       </c>
       <c r="X7" t="s">
-        <v>627</v>
+        <v>514</v>
       </c>
       <c r="Y7" t="s">
-        <v>628</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>629</v>
+        <v>516</v>
       </c>
       <c r="F8" t="s">
-        <v>630</v>
+        <v>517</v>
       </c>
       <c r="G8" t="s">
-        <v>631</v>
+        <v>518</v>
       </c>
       <c r="H8" t="s">
-        <v>632</v>
+        <v>519</v>
       </c>
       <c r="I8" t="s">
-        <v>633</v>
+        <v>520</v>
       </c>
       <c r="J8" t="s">
         <v>80</v>
@@ -10003,7 +9995,7 @@
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>634</v>
+        <v>521</v>
       </c>
       <c r="O8" t="s">
         <v>81</v>
@@ -10024,10 +10016,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>632</v>
+        <v>519</v>
       </c>
       <c r="V8" t="s">
-        <v>632</v>
+        <v>519</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -10035,22 +10027,22 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>635</v>
+        <v>522</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>523</v>
       </c>
       <c r="G9" t="s">
-        <v>637</v>
+        <v>524</v>
       </c>
       <c r="H9" t="s">
-        <v>638</v>
+        <v>525</v>
       </c>
       <c r="I9" t="s">
-        <v>639</v>
+        <v>526</v>
       </c>
       <c r="J9" t="s">
-        <v>634</v>
+        <v>521</v>
       </c>
       <c r="K9" t="s">
         <v>81</v>
@@ -10062,7 +10054,7 @@
         <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>634</v>
+        <v>521</v>
       </c>
       <c r="O9" t="s">
         <v>81</v>
@@ -10083,10 +10075,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>638</v>
+        <v>525</v>
       </c>
       <c r="V9" t="s">
-        <v>638</v>
+        <v>525</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -10094,19 +10086,19 @@
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>640</v>
+        <v>527</v>
       </c>
       <c r="F10" t="s">
-        <v>641</v>
+        <v>528</v>
       </c>
       <c r="G10" t="s">
-        <v>642</v>
+        <v>529</v>
       </c>
       <c r="H10" t="s">
-        <v>643</v>
+        <v>530</v>
       </c>
       <c r="J10" t="s">
-        <v>634</v>
+        <v>521</v>
       </c>
       <c r="K10" t="s">
         <v>81</v>
@@ -10119,7 +10111,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>634</v>
+        <v>521</v>
       </c>
       <c r="O10" t="s">
         <v>81</v>
@@ -10140,19 +10132,19 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>644</v>
+        <v>531</v>
       </c>
       <c r="V10" t="s">
-        <v>645</v>
+        <v>532</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
-      <c r="X10" s="91" t="s">
-        <v>722</v>
+      <c r="X10" s="86" t="s">
+        <v>609</v>
       </c>
       <c r="Y10" t="s">
-        <v>646</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -10163,33 +10155,33 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>647</v>
+        <v>534</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>648</v>
+        <v>535</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>649</v>
+        <v>536</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>650</v>
+        <v>537</v>
       </c>
       <c r="H12" t="s">
-        <v>651</v>
+        <v>538</v>
       </c>
       <c r="I12" t="s">
-        <v>652</v>
+        <v>539</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>653</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>654</v>
+        <v>541</v>
       </c>
       <c r="F13" t="str">
         <f>角色权限!$E$8</f>
@@ -10200,18 +10192,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H13" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I13" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J13" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>658</v>
+        <v>545</v>
       </c>
       <c r="F14" t="str">
         <f>角色权限!$E$8</f>
@@ -10222,18 +10214,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H14" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I14" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J14" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="E15" t="s">
-        <v>659</v>
+        <v>546</v>
       </c>
       <c r="F15" t="str">
         <f>角色权限!$E$9</f>
@@ -10244,18 +10236,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H15" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I15" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J15" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="E16" t="s">
-        <v>660</v>
+        <v>547</v>
       </c>
       <c r="F16" t="str">
         <f>角色权限!$E$10</f>
@@ -10266,18 +10258,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H16" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I16" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J16" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>661</v>
+        <v>548</v>
       </c>
       <c r="F17" t="str">
         <f>角色权限!$E$8</f>
@@ -10288,18 +10280,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H17" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I17" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J17" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>662</v>
+        <v>549</v>
       </c>
       <c r="F18" t="str">
         <f>角色权限!$E$8</f>
@@ -10310,18 +10302,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H18" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I18" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J18" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>663</v>
+        <v>550</v>
       </c>
       <c r="F19" t="str">
         <f>角色权限!$E$8</f>
@@ -10332,18 +10324,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H19" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I19" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J19" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>664</v>
+        <v>551</v>
       </c>
       <c r="F20" t="str">
         <f>角色权限!$E$8</f>
@@ -10354,18 +10346,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H20" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I20" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J20" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>665</v>
+        <v>552</v>
       </c>
       <c r="F21" t="str">
         <f>角色权限!$E$8</f>
@@ -10376,18 +10368,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H21" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I21" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J21" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>666</v>
+        <v>553</v>
       </c>
       <c r="F22" t="str">
         <f>角色权限!$E$8</f>
@@ -10398,18 +10390,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H22" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I22" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J22" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>667</v>
+        <v>554</v>
       </c>
       <c r="F23" t="str">
         <f>角色权限!$E$8</f>
@@ -10420,18 +10412,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H23" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I23" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J23" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>668</v>
+        <v>555</v>
       </c>
       <c r="F24" t="str">
         <f>角色权限!$E$8</f>
@@ -10442,18 +10434,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H24" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I24" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J24" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>669</v>
+        <v>556</v>
       </c>
       <c r="F25" t="str">
         <f>角色权限!$E$8</f>
@@ -10464,18 +10456,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H25" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I25" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J25" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>670</v>
+        <v>557</v>
       </c>
       <c r="F26" t="str">
         <f>角色权限!$E$8</f>
@@ -10486,18 +10478,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H26" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I26" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J26" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>671</v>
+        <v>558</v>
       </c>
       <c r="F27" t="str">
         <f>角色权限!$E$8</f>
@@ -10508,18 +10500,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H27" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I27" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J27" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>672</v>
+        <v>559</v>
       </c>
       <c r="F28" t="str">
         <f>角色权限!$E$8</f>
@@ -10530,18 +10522,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H28" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I28" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J28" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>673</v>
+        <v>560</v>
       </c>
       <c r="F29" t="str">
         <f>角色权限!$E$8</f>
@@ -10552,18 +10544,18 @@
         <v>iam_menu-46</v>
       </c>
       <c r="H29" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I29" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J29" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>674</v>
+        <v>561</v>
       </c>
       <c r="F30" t="str">
         <f>角色权限!$E$8</f>
@@ -10574,18 +10566,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H30" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I30" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J30" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>675</v>
+        <v>562</v>
       </c>
       <c r="F31" t="str">
         <f>角色权限!$E$8</f>
@@ -10596,18 +10588,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H31" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I31" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J31" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>676</v>
+        <v>563</v>
       </c>
       <c r="F32" t="str">
         <f>角色权限!$E$8</f>
@@ -10618,18 +10610,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H32" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I32" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J32" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>677</v>
+        <v>564</v>
       </c>
       <c r="F33" t="str">
         <f>角色权限!$E$8</f>
@@ -10640,18 +10632,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H33" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I33" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J33" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>678</v>
+        <v>565</v>
       </c>
       <c r="F34" t="str">
         <f>角色权限!$E$9</f>
@@ -10662,18 +10654,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H34" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I34" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J34" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>679</v>
+        <v>566</v>
       </c>
       <c r="F35" t="str">
         <f>角色权限!$E$8</f>
@@ -10684,18 +10676,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H35" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I35" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J35" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>680</v>
+        <v>567</v>
       </c>
       <c r="F36" t="str">
         <f>角色权限!$E$8</f>
@@ -10706,18 +10698,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H36" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I36" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J36" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>681</v>
+        <v>568</v>
       </c>
       <c r="F37" t="str">
         <f>角色权限!$E$8</f>
@@ -10728,18 +10720,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H37" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I37" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J37" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>682</v>
+        <v>569</v>
       </c>
       <c r="F38" t="str">
         <f>角色权限!$E$8</f>
@@ -10750,18 +10742,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H38" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I38" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J38" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>683</v>
+        <v>570</v>
       </c>
       <c r="F39" t="str">
         <f>角色权限!$E$9</f>
@@ -10772,18 +10764,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H39" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I39" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J39" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>684</v>
+        <v>571</v>
       </c>
       <c r="F40" t="str">
         <f>角色权限!$E$8</f>
@@ -10794,18 +10786,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H40" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I40" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J40" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="F41" t="str">
         <f>角色权限!$E$8</f>
@@ -10816,18 +10808,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H41" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I41" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J41" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="F42" t="str">
         <f>角色权限!$E$8</f>
@@ -10838,18 +10830,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H42" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I42" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J42" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>687</v>
+        <v>574</v>
       </c>
       <c r="F43" t="str">
         <f>角色权限!$E$8</f>
@@ -10860,18 +10852,18 @@
         <v>iam_menu-48</v>
       </c>
       <c r="H43" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I43" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J43" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="F44" t="str">
         <f>角色权限!$E$8</f>
@@ -10882,18 +10874,18 @@
         <v>iam_menu-49</v>
       </c>
       <c r="H44" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I44" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J44" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>689</v>
+        <v>576</v>
       </c>
       <c r="F45" t="str">
         <f>角色权限!$E$8</f>
@@ -10904,18 +10896,18 @@
         <v>iam_menu-50</v>
       </c>
       <c r="H45" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I45" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J45" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>690</v>
+        <v>577</v>
       </c>
       <c r="F46" t="str">
         <f>角色权限!$E$8</f>
@@ -10926,18 +10918,18 @@
         <v>iam_menu-51</v>
       </c>
       <c r="H46" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I46" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J46" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>691</v>
+        <v>578</v>
       </c>
       <c r="F47" t="str">
         <f>角色权限!$E$8</f>
@@ -10948,18 +10940,18 @@
         <v>iam_menu-52</v>
       </c>
       <c r="H47" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I47" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J47" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>692</v>
+        <v>579</v>
       </c>
       <c r="F48" t="str">
         <f>角色权限!$E$8</f>
@@ -10970,18 +10962,18 @@
         <v>iam_menu-53</v>
       </c>
       <c r="H48" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I48" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J48" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>693</v>
+        <v>580</v>
       </c>
       <c r="F49" t="str">
         <f>角色权限!$E$8</f>
@@ -10992,18 +10984,18 @@
         <v>iam_menu-54</v>
       </c>
       <c r="H49" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I49" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J49" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>694</v>
+        <v>581</v>
       </c>
       <c r="F50" t="str">
         <f>角色权限!$E$8</f>
@@ -11014,18 +11006,18 @@
         <v>iam_menu-55</v>
       </c>
       <c r="H50" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I50" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J50" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>695</v>
+        <v>582</v>
       </c>
       <c r="F51" t="str">
         <f>角色权限!$E$8</f>
@@ -11036,13 +11028,13 @@
         <v>iam_menu-56</v>
       </c>
       <c r="H51" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="I51" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="J51" t="s">
-        <v>657</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -11092,66 +11084,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>696</v>
+        <v>583</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>697</v>
+        <v>584</v>
       </c>
       <c r="E7" s="78" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="79" t="s">
-        <v>698</v>
+        <v>585</v>
       </c>
       <c r="G7" s="80" t="s">
-        <v>653</v>
+        <v>540</v>
       </c>
       <c r="H7" t="s">
-        <v>699</v>
+        <v>586</v>
       </c>
       <c r="I7" t="s">
-        <v>615</v>
+        <v>502</v>
       </c>
       <c r="J7" t="s">
-        <v>700</v>
+        <v>587</v>
       </c>
       <c r="K7" t="s">
-        <v>701</v>
+        <v>588</v>
       </c>
       <c r="L7" t="s">
-        <v>702</v>
+        <v>589</v>
       </c>
       <c r="M7" t="s">
-        <v>703</v>
+        <v>590</v>
       </c>
       <c r="N7" t="s">
-        <v>704</v>
+        <v>591</v>
       </c>
       <c r="O7" t="s">
-        <v>705</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>706</v>
+        <v>593</v>
       </c>
       <c r="F8" t="s">
-        <v>707</v>
+        <v>594</v>
       </c>
       <c r="G8" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>709</v>
+        <v>596</v>
       </c>
       <c r="J8" t="s">
-        <v>710</v>
+        <v>597</v>
       </c>
       <c r="K8" t="s">
-        <v>710</v>
+        <v>597</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -11165,19 +11157,19 @@
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="F9" t="s">
-        <v>712</v>
+        <v>599</v>
       </c>
       <c r="G9" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="H9" t="s">
         <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>709</v>
+        <v>596</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
@@ -11197,33 +11189,33 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>713</v>
+        <v>600</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>714</v>
+        <v>601</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>715</v>
+        <v>602</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>716</v>
+        <v>603</v>
       </c>
       <c r="G11" s="84" t="s">
-        <v>717</v>
+        <v>604</v>
       </c>
       <c r="H11" s="85" t="s">
-        <v>718</v>
+        <v>605</v>
       </c>
       <c r="I11" t="s">
-        <v>719</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F12" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -11234,15 +11226,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I12" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F13" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -11253,15 +11245,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I13" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F14" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -11272,15 +11264,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I14" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F15" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -11291,15 +11283,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I15" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F16" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -11310,15 +11302,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F17" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11329,15 +11321,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F18" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -11348,15 +11340,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F19" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -11367,15 +11359,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F20" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11386,15 +11378,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F21" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -11405,15 +11397,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I21" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F22" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11424,15 +11416,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F23" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11443,15 +11435,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F24" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -11462,15 +11454,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F25" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11481,15 +11473,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F26" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -11500,15 +11492,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I26" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F27" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -11519,15 +11511,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I27" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F28" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G28" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -11538,15 +11530,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I28" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F29" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -11557,15 +11549,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F30" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -11576,15 +11568,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F31" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$46</f>
@@ -11595,15 +11587,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F32" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -11614,15 +11606,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I32" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F33" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -11633,15 +11625,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I33" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F34" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -11652,15 +11644,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I34" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F35" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -11671,15 +11663,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I35" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F36" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -11690,15 +11682,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I36" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F37" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -11709,15 +11701,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F38" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -11728,15 +11720,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I38" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F39" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -11747,15 +11739,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I39" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F40" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -11766,15 +11758,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I40" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F41" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -11785,15 +11777,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I41" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F42" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -11804,15 +11796,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I42" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F43" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -11823,15 +11815,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I43" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F44" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -11842,15 +11834,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I44" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F45" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -11861,15 +11853,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I45" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F46" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -11880,15 +11872,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I46" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F47" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -11899,15 +11891,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I47" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F48" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -11918,15 +11910,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I48" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F49" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$45</f>
@@ -11937,15 +11929,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I49" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F50" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$47</f>
@@ -11956,15 +11948,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I50" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F51" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$48</f>
@@ -11975,15 +11967,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I51" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F52" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$49</f>
@@ -11994,15 +11986,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I52" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F53" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$50</f>
@@ -12013,15 +12005,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I53" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F54" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -12032,15 +12024,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I54" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F55" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -12051,15 +12043,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I55" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F56" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -12070,15 +12062,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I56" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F57" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -12089,15 +12081,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I57" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F58" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -12108,15 +12100,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I58" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>720</v>
+        <v>607</v>
       </c>
       <c r="F59" t="s">
-        <v>708</v>
+        <v>595</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$56</f>
@@ -12127,7 +12119,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I59" t="s">
-        <v>721</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
